--- a/ClosedXML_Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
+++ b/ClosedXML_Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
@@ -416,24 +416,36 @@
     <x:col min="2" max="16384" width="9" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="2" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="3" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="4" spans="1:1" customFormat="1" ht="18" customHeight="1">
+    <x:row r="1" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
+      <x:c r="A1" s="0" t="s"/>
+    </x:row>
+    <x:row r="2" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
+      <x:c r="A2" s="0" t="s"/>
+    </x:row>
+    <x:row r="3" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
+      <x:c r="A3" s="0" t="s"/>
+    </x:row>
+    <x:row r="4" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
       <x:c r="A4" s="0" t="n">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="6" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="7" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="8" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="9" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="10" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="11" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="12" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="13" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
-    <x:row r="14" spans="1:1" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="5" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
+      <x:c r="A5" s="0" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
+      <x:c r="A6" s="0" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
+      <x:c r="A7" s="0" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="9" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="10" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="11" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="12" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="13" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
+    <x:row r="14" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
   </x:sheetData>
   <x:phoneticPr fontId="1" type="noConversion"/>
   <x:conditionalFormatting sqref="A1:A7">

--- a/ClosedXML_Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
+++ b/ClosedXML_Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
@@ -92,7 +92,7 @@
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor auto="1"/>
-          <x:bgColor/>
+          <x:bgColor theme="1"/>
         </x:patternFill>
       </x:fill>
     </x:dxf>

--- a/ClosedXML_Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
+++ b/ClosedXML_Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
@@ -89,12 +89,6 @@
       <x:font>
         <x:color theme="1"/>
       </x:font>
-      <x:fill>
-        <x:patternFill patternType="solid">
-          <x:fgColor auto="1"/>
-          <x:bgColor theme="1"/>
-        </x:patternFill>
-      </x:fill>
     </x:dxf>
   </x:dxfs>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>

--- a/ClosedXML_Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
+++ b/ClosedXML_Tests/Resource/Other/StyleReferenceFiles/TransparentBackgroundFill/TransparentBackgroundFill.xlsx
@@ -66,11 +66,15 @@
   <x:cellStyleXfs count="1">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
@@ -406,32 +410,32 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.570312" style="0" customWidth="1"/>
-    <x:col min="2" max="16384" width="9" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.570312" style="3" customWidth="1"/>
+    <x:col min="2" max="16384" width="9" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A1" s="0" t="s"/>
+      <x:c r="A1" s="3" t="s"/>
     </x:row>
     <x:row r="2" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A2" s="0" t="s"/>
+      <x:c r="A2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A3" s="0" t="s"/>
+      <x:c r="A3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="3" t="n">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A5" s="0" t="s"/>
+      <x:c r="A5" s="3" t="s"/>
     </x:row>
     <x:row r="6" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A6" s="0" t="s"/>
+      <x:c r="A6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A7" s="0" t="s"/>
+      <x:c r="A7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
     <x:row r="9" spans="1:1" s="0" customFormat="1" ht="18" customHeight="1"/>
